--- a/original/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-203_外部IF機能要件定義(サンプル＆ガイド).xlsx
+++ b/original/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-203_外部IF機能要件定義(サンプル＆ガイド).xlsx
@@ -1825,16 +1825,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>TIS株式会社</t>
-    <rPh sb="1" eb="3">
-      <t>カブシキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイシャ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t xml:space="preserve">この 作品 は </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2031,6 +2021,13 @@
     </rPh>
     <rPh sb="41" eb="43">
       <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
+    <rPh sb="0" eb="1">
+      <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5991,9 +5988,7 @@
       <c r="G31" s="20"/>
       <c r="H31" s="17"/>
       <c r="J31" s="21"/>
-      <c r="R31" s="22" t="s">
-        <v>157</v>
-      </c>
+      <c r="R31" s="22"/>
     </row>
     <row r="32" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F32" s="17"/>
@@ -6033,20 +6028,24 @@
     </row>
     <row r="39" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E39" s="29" t="s">
         <v>158</v>
-      </c>
-      <c r="E39" s="29" t="s">
-        <v>159</v>
       </c>
       <c r="O39" s="26"/>
       <c r="P39" s="26"/>
       <c r="Q39" s="27"/>
       <c r="R39" s="27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S39" s="26"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
     <row r="41" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="43" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6521,7 +6520,7 @@
     <hyperlink ref="E39" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -6882,7 +6881,7 @@
       <c r="G30" s="36"/>
       <c r="H30" s="37"/>
       <c r="I30" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J30" s="36"/>
       <c r="K30" s="36"/>
@@ -6924,7 +6923,7 @@
       <c r="G31" s="36"/>
       <c r="H31" s="37"/>
       <c r="I31" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J31" s="36"/>
       <c r="K31" s="36"/>
@@ -6966,7 +6965,7 @@
       <c r="G32" s="36"/>
       <c r="H32" s="37"/>
       <c r="I32" s="35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J32" s="36"/>
       <c r="K32" s="36"/>
@@ -7302,7 +7301,7 @@
       <c r="G40" s="36"/>
       <c r="H40" s="37"/>
       <c r="I40" s="35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J40" s="36"/>
       <c r="K40" s="36"/>
@@ -7667,7 +7666,7 @@
     <row r="55" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="11"/>
       <c r="C55" s="31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11"/>
